--- a/MDA-MB-231-Cell-Count-Data/GH1909_50nM_working_mod_8_22.xlsx
+++ b/MDA-MB-231-Cell-Count-Data/GH1909_50nM_working_mod_8_22.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grh57\Documents\MATLAB\2020 Incucyte Data Cal-Val\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grh57\Desktop\Cell Count Data (Final MATLAB Format) v2\231\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,7 +339,7 @@
   <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130:H214"/>
+      <selection activeCell="B1" sqref="B1:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -353,22 +349,22 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1740</v>
+        <v>1421.4640554096013</v>
       </c>
       <c r="C1">
-        <v>1880</v>
+        <v>1497.9868297271873</v>
       </c>
       <c r="D1">
-        <v>1887</v>
+        <v>1479.9022400919014</v>
       </c>
       <c r="E1">
-        <v>1996</v>
+        <v>1594.3349873194402</v>
       </c>
       <c r="F1">
-        <v>1628</v>
+        <v>1301.9172124057827</v>
       </c>
       <c r="G1">
-        <v>1770</v>
+        <v>1368.6577263779527</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -376,22 +372,22 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1723</v>
+        <v>1407.5761882015765</v>
       </c>
       <c r="C2">
-        <v>1935</v>
+        <v>1541.8109125117592</v>
       </c>
       <c r="D2">
-        <v>1933</v>
+        <v>1515.9782883400346</v>
       </c>
       <c r="E2">
-        <v>2037</v>
+        <v>1627.0843532914325</v>
       </c>
       <c r="F2">
-        <v>1664</v>
+        <v>1330.7065365130359</v>
       </c>
       <c r="G2">
-        <v>1852</v>
+        <v>1432.064468503937</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -399,22 +395,22 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1768</v>
+        <v>1444.3381896345834</v>
       </c>
       <c r="C3">
-        <v>1986</v>
+        <v>1582.4477892756352</v>
       </c>
       <c r="D3">
-        <v>1987</v>
+        <v>1558.3284319356694</v>
       </c>
       <c r="E3">
-        <v>2167</v>
+        <v>1730.9238063733601</v>
       </c>
       <c r="F3">
-        <v>1740</v>
+        <v>1391.4839985172371</v>
       </c>
       <c r="G3">
-        <v>1865</v>
+        <v>1442.1167568897638</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -422,22 +418,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1837</v>
+        <v>1500.7065918318606</v>
       </c>
       <c r="C4">
-        <v>2067</v>
+        <v>1646.9887111947319</v>
       </c>
       <c r="D4">
-        <v>2033</v>
+        <v>1594.4044801838027</v>
       </c>
       <c r="E4">
-        <v>2220</v>
+        <v>1773.2583526298381</v>
       </c>
       <c r="F4">
-        <v>1795</v>
+        <v>1435.4676881255405</v>
       </c>
       <c r="G4">
-        <v>1944</v>
+        <v>1503.2037401574803</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -445,22 +441,22 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1964</v>
+        <v>1604.4571292094579</v>
       </c>
       <c r="C5">
-        <v>2151</v>
+        <v>1713.9200376293509</v>
       </c>
       <c r="D5">
-        <v>2150</v>
+        <v>1686.1631246410111</v>
       </c>
       <c r="E5">
-        <v>2282</v>
+        <v>1822.7817840996804</v>
       </c>
       <c r="F5">
-        <v>1918</v>
+        <v>1533.8312121586555</v>
       </c>
       <c r="G5">
-        <v>2004</v>
+        <v>1549.5989173228345</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -468,22 +464,22 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>2053</v>
+        <v>1677.1641987102939</v>
       </c>
       <c r="C6">
-        <v>2294</v>
+        <v>1827.862652869238</v>
       </c>
       <c r="D6">
-        <v>2233</v>
+        <v>1751.2568638713385</v>
       </c>
       <c r="E6">
-        <v>2373</v>
+        <v>1895.4694012570296</v>
       </c>
       <c r="F6">
-        <v>1966</v>
+        <v>1572.2169776349931</v>
       </c>
       <c r="G6">
-        <v>2115</v>
+        <v>1635.4299950787401</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -491,22 +487,22 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>2108</v>
+        <v>1722.0955337950802</v>
       </c>
       <c r="C7">
-        <v>2347</v>
+        <v>1870.093132643462</v>
       </c>
       <c r="D7">
-        <v>2281</v>
+        <v>1788.9014359563473</v>
       </c>
       <c r="E7">
-        <v>2446</v>
+        <v>1953.7792479876505</v>
       </c>
       <c r="F7">
-        <v>2060</v>
+        <v>1647.3891016928208</v>
       </c>
       <c r="G7">
-        <v>2190</v>
+        <v>1693.423966535433</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -514,22 +510,22 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>2216</v>
+        <v>1810.3243372342968</v>
       </c>
       <c r="C8">
-        <v>2415</v>
+        <v>1924.2756349952965</v>
       </c>
       <c r="D8">
-        <v>2414</v>
+        <v>1893.2082711085586</v>
       </c>
       <c r="E8">
-        <v>2575</v>
+        <v>2056.8199360458707</v>
       </c>
       <c r="F8">
-        <v>2155</v>
+        <v>1723.3609291980722</v>
       </c>
       <c r="G8">
-        <v>2278</v>
+        <v>1761.4702263779527</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -537,22 +533,22 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>2337</v>
+        <v>1909.1732744208266</v>
       </c>
       <c r="C9">
-        <v>2520</v>
+        <v>2007.9397930385701</v>
       </c>
       <c r="D9">
-        <v>2495</v>
+        <v>1956.7334865020107</v>
       </c>
       <c r="E9">
-        <v>2659</v>
+        <v>2123.9161980372701</v>
       </c>
       <c r="F9">
-        <v>2277</v>
+        <v>1820.9247497837637</v>
       </c>
       <c r="G9">
-        <v>2363</v>
+        <v>1827.1967273622047</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -560,22 +556,22 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>2469</v>
+        <v>2017.0084786243135</v>
       </c>
       <c r="C10">
-        <v>2629</v>
+        <v>2094.7911571025402</v>
       </c>
       <c r="D10">
-        <v>2635</v>
+        <v>2066.530155083286</v>
       </c>
       <c r="E10">
-        <v>2830</v>
+        <v>2260.50501709119</v>
       </c>
       <c r="F10">
-        <v>2408</v>
+        <v>1925.6859013962683</v>
       </c>
       <c r="G10">
-        <v>2505</v>
+        <v>1936.9986466535431</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -583,22 +579,22 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>2711</v>
+        <v>2214.706352997373</v>
       </c>
       <c r="C11">
-        <v>2856</v>
+        <v>2275.6650987770463</v>
       </c>
       <c r="D11">
-        <v>2868</v>
+        <v>2249.2631820792653</v>
       </c>
       <c r="E11">
-        <v>3086</v>
+        <v>2464.9888631602166</v>
       </c>
       <c r="F11">
-        <v>2626</v>
+        <v>2100.0212529346345</v>
       </c>
       <c r="G11">
-        <v>2748</v>
+        <v>2124.8991141732281</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -606,22 +602,22 @@
         <v>33</v>
       </c>
       <c r="B12">
-        <v>2927</v>
+        <v>2391.1639598758061</v>
       </c>
       <c r="C12">
-        <v>3025</v>
+        <v>2410.3245531514581</v>
       </c>
       <c r="D12">
-        <v>3088</v>
+        <v>2421.8008041355547</v>
       </c>
       <c r="E12">
-        <v>3282</v>
+        <v>2621.5468078068147</v>
       </c>
       <c r="F12">
-        <v>2799</v>
+        <v>2238.3699493389345</v>
       </c>
       <c r="G12">
-        <v>2882</v>
+        <v>2228.5150098425197</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -629,22 +625,22 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>3074</v>
+        <v>2511.2531645569625</v>
       </c>
       <c r="C13">
-        <v>3224</v>
+        <v>2568.8880526810913</v>
       </c>
       <c r="D13">
-        <v>3297</v>
+        <v>2585.7115450890296</v>
       </c>
       <c r="E13">
-        <v>3502</v>
+        <v>2797.2751130223842</v>
       </c>
       <c r="F13">
-        <v>3000</v>
+        <v>2399.1103422710985</v>
       </c>
       <c r="G13">
-        <v>3083</v>
+        <v>2383.9388533464567</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -652,22 +648,22 @@
         <v>39</v>
       </c>
       <c r="B14">
-        <v>3291</v>
+        <v>2688.5277048005732</v>
       </c>
       <c r="C14">
-        <v>3414</v>
+        <v>2720.2803386641581</v>
       </c>
       <c r="D14">
-        <v>3480</v>
+        <v>2729.2314761631251</v>
       </c>
       <c r="E14">
-        <v>3733</v>
+        <v>2981.7898334987326</v>
       </c>
       <c r="F14">
-        <v>3230</v>
+        <v>2583.042135178549</v>
       </c>
       <c r="G14">
-        <v>3301</v>
+        <v>2552.5079970472439</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -675,22 +671,22 @@
         <v>42</v>
       </c>
       <c r="B15">
-        <v>3448</v>
+        <v>2816.7862431335088</v>
       </c>
       <c r="C15">
-        <v>3634</v>
+        <v>2895.5766698024458</v>
       </c>
       <c r="D15">
-        <v>3673</v>
+        <v>2880.5940264215974</v>
       </c>
       <c r="E15">
-        <v>3925</v>
+        <v>3135.1527180505022</v>
       </c>
       <c r="F15">
-        <v>3356</v>
+        <v>2683.8047695539353</v>
       </c>
       <c r="G15">
-        <v>3469</v>
+        <v>2682.414493110236</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -698,22 +694,22 @@
         <v>44.966666666666697</v>
       </c>
       <c r="B16">
-        <v>3630</v>
+        <v>2965.4681155958924</v>
       </c>
       <c r="C16">
-        <v>3738</v>
+        <v>2978.4440263405459</v>
       </c>
       <c r="D16">
-        <v>3802</v>
+        <v>2981.7638139000578</v>
       </c>
       <c r="E16">
-        <v>4141</v>
+        <v>3307.6859631712432</v>
       </c>
       <c r="F16">
-        <v>3528</v>
+        <v>2821.3537625108115</v>
       </c>
       <c r="G16">
-        <v>3504</v>
+        <v>2709.4783464566926</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -721,22 +717,22 @@
         <v>47.966666666666697</v>
       </c>
       <c r="B17">
-        <v>3763</v>
+        <v>3074.1202531645572</v>
       </c>
       <c r="C17">
-        <v>3885</v>
+        <v>3095.5738476011288</v>
       </c>
       <c r="D17">
-        <v>3961</v>
+        <v>3106.4614589316488</v>
       </c>
       <c r="E17">
-        <v>4280</v>
+        <v>3418.7143014665348</v>
       </c>
       <c r="F17">
-        <v>3703</v>
+        <v>2961.3018658099591</v>
       </c>
       <c r="G17">
-        <v>3651</v>
+        <v>2823.1465305118109</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -744,22 +740,22 @@
         <v>50.966666666666697</v>
       </c>
       <c r="B18">
-        <v>3847</v>
+        <v>3142.7426558395036</v>
       </c>
       <c r="C18">
-        <v>3997</v>
+        <v>3184.815616180621</v>
       </c>
       <c r="D18">
-        <v>4050</v>
+        <v>3176.2607696726027</v>
       </c>
       <c r="E18">
-        <v>4355</v>
+        <v>3478.6216782445699</v>
       </c>
       <c r="F18">
-        <v>3813</v>
+        <v>3049.2692450265658</v>
       </c>
       <c r="G18">
-        <v>3797</v>
+        <v>2936.0414616141729</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -767,22 +763,22 @@
         <v>53.966666666666697</v>
       </c>
       <c r="B19">
-        <v>3951</v>
+        <v>3227.7037258180085</v>
       </c>
       <c r="C19">
-        <v>4082</v>
+        <v>3252.543744120414</v>
       </c>
       <c r="D19">
-        <v>4141</v>
+        <v>3247.6286042504312</v>
       </c>
       <c r="E19">
-        <v>4467</v>
+        <v>3568.0833608997691</v>
       </c>
       <c r="F19">
-        <v>3870</v>
+        <v>3094.8523415297168</v>
       </c>
       <c r="G19">
-        <v>3859</v>
+        <v>2983.9831446850394</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -790,22 +786,22 @@
         <v>56.966666666666697</v>
       </c>
       <c r="B20">
-        <v>4028</v>
+        <v>3290.6075949367091</v>
       </c>
       <c r="C20">
-        <v>4123</v>
+        <v>3285.2126058325493</v>
       </c>
       <c r="D20">
-        <v>4201</v>
+        <v>3294.684319356692</v>
       </c>
       <c r="E20">
-        <v>4444</v>
+        <v>3549.7117653545051</v>
       </c>
       <c r="F20">
-        <v>3908</v>
+        <v>3125.2410725318173</v>
       </c>
       <c r="G20">
-        <v>3889</v>
+        <v>3007.1807332677163</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -813,22 +809,22 @@
         <v>59.966666666666697</v>
       </c>
       <c r="B21">
-        <v>4070</v>
+        <v>3324.9187962741821</v>
       </c>
       <c r="C21">
-        <v>4172</v>
+        <v>3324.2558795860773</v>
       </c>
       <c r="D21">
-        <v>4250</v>
+        <v>3333.1131533601383</v>
       </c>
       <c r="E21">
-        <v>4447</v>
+        <v>3552.1080604256263</v>
       </c>
       <c r="F21">
-        <v>3956</v>
+        <v>3163.6268380081551</v>
       </c>
       <c r="G21">
-        <v>3980</v>
+        <v>3077.5467519685039</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -836,22 +832,22 @@
         <v>62.966666666666697</v>
       </c>
       <c r="B22">
-        <v>4106</v>
+        <v>3354.3283974205879</v>
       </c>
       <c r="C22">
-        <v>4207</v>
+        <v>3352.1439322671686</v>
       </c>
       <c r="D22">
-        <v>4267</v>
+        <v>3346.4456059735789</v>
       </c>
       <c r="E22">
-        <v>4524</v>
+        <v>3613.6129672510756</v>
       </c>
       <c r="F22">
-        <v>4012</v>
+        <v>3208.4102310638823</v>
       </c>
       <c r="G22">
-        <v>3986</v>
+        <v>3082.1862696850394</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -859,22 +855,22 @@
         <v>65.966666666666697</v>
       </c>
       <c r="B23">
-        <v>4160</v>
+        <v>3398.4427991401963</v>
       </c>
       <c r="C23">
-        <v>4237</v>
+        <v>3376.0479774223895</v>
       </c>
       <c r="D23">
-        <v>4324</v>
+        <v>3391.1485353245266</v>
       </c>
       <c r="E23">
-        <v>4531</v>
+        <v>3619.2043224170257</v>
       </c>
       <c r="F23">
-        <v>4035</v>
+        <v>3226.803410354627</v>
       </c>
       <c r="G23">
-        <v>4038</v>
+        <v>3122.3954232283463</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
